--- a/bases/tabla3.xlsx
+++ b/bases/tabla3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\Proyectos_de_R\Libro R\bases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\GitHub\intro_r_ciencias\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28C636F-EC61-428E-B3BD-7F8FB7862DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C4385-500C-4BC9-95BF-7ADAB2D69869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Operador</t>
   </si>
@@ -57,9 +57,6 @@
     <t>`&gt;`</t>
   </si>
   <si>
-    <t>`a` es igual `b`</t>
-  </si>
-  <si>
     <t>`a` no es igual `b`</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>`&lt;=`</t>
   </si>
   <si>
-    <t>`A == A`</t>
-  </si>
-  <si>
     <t>`A != A`</t>
   </si>
   <si>
@@ -118,6 +112,21 @@
   </si>
   <si>
     <t>`10 == 10 &amp; 10 &gt; 9`</t>
+  </si>
+  <si>
+    <t>`%in%`</t>
+  </si>
+  <si>
+    <t>`a` es igual `b`, donde `b` es un solo elemento</t>
+  </si>
+  <si>
+    <t>`a` es igual `b`, donde `b` es un conjunto de elementos</t>
+  </si>
+  <si>
+    <t>`1 == 2`</t>
+  </si>
+  <si>
+    <t>`1 %in% c(2,3,1)`</t>
   </si>
 </sst>
 </file>
@@ -469,21 +478,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0FD411-BDF2-40FD-A78A-9EFC2CE3AA28}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.76953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.2265625" customWidth="1"/>
+    <col min="3" max="3" width="18.76953125" customWidth="1"/>
+    <col min="4" max="4" width="20.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -511,115 +520,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="b">
+      <c r="D9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="b">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="b">
+      <c r="D11" t="b">
         <v>1</v>
       </c>
     </row>
